--- a/gd/技能逻辑/新玩法脑洞及技能逻辑.xlsx
+++ b/gd/技能逻辑/新玩法脑洞及技能逻辑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\技能逻辑\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>技能的switch条件需求增加</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -398,6 +398,46 @@
   </si>
   <si>
     <t>4.需求禁魔？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止使用物理、法术技能N回合（需求直接修改AI，去掉对应type技能的权重，在剩下的技能冲roll取）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制让他不使用固定属性魔灵或者强制让他使用某属性魔灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新逻辑：判定固定属性怪物，添加buff（冰冻，灼烧，寄生种子等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%血以下回满血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较考验dps大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑住XX回合的战斗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -779,7 +819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -895,7 +935,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1010,337 +1050,385 @@
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E45" s="1" t="s">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E49" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D51" s="1" t="s">
-        <v>29</v>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F53" s="1" t="s">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F54" s="1" t="s">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G55" s="1" t="s">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G56" s="1" t="s">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E58" s="1" t="s">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F59" s="1" t="s">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G60" s="1" t="s">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G62" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G61" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H62" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G65" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F65" s="1" t="s">
+    <row r="67" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F67" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G66" s="1" t="s">
+      <c r="S67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G68" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G67" s="1" t="s">
+    <row r="69" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G69" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="H68" s="1" t="s">
+    <row r="70" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="H70" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G69" s="1" t="s">
+    <row r="71" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G71" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G70" s="1" t="s">
+    <row r="72" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G72" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="H71" s="1" t="s">
+    <row r="73" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="H73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E73" s="1" t="s">
+    <row r="74" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G75" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="G76" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="E80" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F74" s="1" t="s">
+    <row r="81" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F81" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G75" s="1" t="s">
+    <row r="82" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="G82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="H76" s="1" t="s">
+    <row r="83" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="H83" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="I77" s="1" t="s">
+    <row r="84" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I84" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="I78" s="1" t="s">
+    <row r="85" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I85" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="G79" s="1" t="s">
+    <row r="86" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="G86" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="H80" s="1" t="s">
+    <row r="87" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="H87" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I81" s="1" t="s">
+    <row r="88" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I88" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I82" s="1" t="s">
+    <row r="89" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I89" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F84" s="1" t="s">
+    <row r="91" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F91" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="G85" s="1" t="s">
+    <row r="92" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="G92" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="H86" s="1" t="s">
+    <row r="93" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="H93" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I87" s="1" t="s">
+    <row r="94" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I94" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D89" s="4" t="s">
+    <row r="95" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I96" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D97" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E90" s="1" t="s">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E98" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F91" s="1" t="s">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F99" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E93" s="1" t="s">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E101" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F94" s="1" t="s">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F102" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E96" s="1" t="s">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F97" s="1" t="s">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F105" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E99" s="1" t="s">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E107" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D102" s="4" t="s">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F108" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D110" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E103" s="1" t="s">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E111" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F104" s="1" t="s">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F112" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G105" s="1" t="s">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="G113" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E107" s="1" t="s">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E115" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F108" s="1" t="s">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F116" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G109" s="1" t="s">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="G117" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E111" s="1" t="s">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I118" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E119" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F112" s="1" t="s">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F120" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G113" s="1" t="s">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="G121" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E114" s="1" t="s">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E122" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D116" s="4" t="s">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D124" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E117" s="1" t="s">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E125" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F118" s="1" t="s">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F126" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E119" s="1" t="s">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E127" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F120" s="1" t="s">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F128" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E121" s="1" t="s">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E129" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F122" s="1" t="s">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F130" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E123" s="1" t="s">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E131" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F124" s="1" t="s">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F132" s="1" t="s">
         <v>84</v>
       </c>
     </row>
